--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H2">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I2">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J2">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>112.9463321972359</v>
+        <v>635.591801565024</v>
       </c>
       <c r="R2">
-        <v>112.9463321972359</v>
+        <v>5720.326214085216</v>
       </c>
       <c r="S2">
-        <v>6.533857779094007E-05</v>
+        <v>0.0003526805105533398</v>
       </c>
       <c r="T2">
-        <v>6.533857779094007E-05</v>
+        <v>0.0003526805105533399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H3">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I3">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J3">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>207.9483026957787</v>
+        <v>1047.082943278744</v>
       </c>
       <c r="R3">
-        <v>207.9483026957787</v>
+        <v>9423.746489508696</v>
       </c>
       <c r="S3">
-        <v>0.0001202964814161056</v>
+        <v>0.000581010872257863</v>
       </c>
       <c r="T3">
-        <v>0.0001202964814161056</v>
+        <v>0.0005810108722578631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H4">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I4">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J4">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>78.94667077551834</v>
+        <v>420.0768612774401</v>
       </c>
       <c r="R4">
-        <v>78.94667077551834</v>
+        <v>3780.69175149696</v>
       </c>
       <c r="S4">
-        <v>4.567003717123074E-05</v>
+        <v>0.0002330944507814192</v>
       </c>
       <c r="T4">
-        <v>4.567003717123074E-05</v>
+        <v>0.0002330944507814193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H5">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I5">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J5">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>179.1794345151575</v>
+        <v>926.74727412088</v>
       </c>
       <c r="R5">
-        <v>179.1794345151575</v>
+        <v>8340.725467087919</v>
       </c>
       <c r="S5">
-        <v>0.000103653914145357</v>
+        <v>0.0005142383853694659</v>
       </c>
       <c r="T5">
-        <v>0.000103653914145357</v>
+        <v>0.000514238385369466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3580.33884961302</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H6">
-        <v>3580.33884961302</v>
+        <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J6">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>316661.4622231727</v>
+        <v>354293.0461839487</v>
       </c>
       <c r="R6">
-        <v>316661.4622231727</v>
+        <v>3188637.415655538</v>
       </c>
       <c r="S6">
-        <v>0.1831862016265451</v>
+        <v>0.196591982630962</v>
       </c>
       <c r="T6">
-        <v>0.1831862016265451</v>
+        <v>0.196591982630962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3580.33884961302</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H7">
-        <v>3580.33884961302</v>
+        <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J7">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>583013.2977092256</v>
+        <v>583667.3863130825</v>
       </c>
       <c r="R7">
-        <v>583013.2977092256</v>
+        <v>5253006.476817743</v>
       </c>
       <c r="S7">
-        <v>0.3372686741080289</v>
+        <v>0.3238684188363814</v>
       </c>
       <c r="T7">
-        <v>0.3372686741080289</v>
+        <v>0.3238684188363815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3580.33884961302</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H8">
-        <v>3580.33884961302</v>
+        <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J8">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>221338.4686257111</v>
+        <v>234160.2117064914</v>
       </c>
       <c r="R8">
-        <v>221338.4686257111</v>
+        <v>2107441.905358423</v>
       </c>
       <c r="S8">
-        <v>0.1280425886267292</v>
+        <v>0.1299320457132656</v>
       </c>
       <c r="T8">
-        <v>0.1280425886267292</v>
+        <v>0.1299320457132656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3580.33884961302</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H9">
-        <v>3580.33884961302</v>
+        <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J9">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>502355.5934052682</v>
+        <v>516589.600404666</v>
       </c>
       <c r="R9">
-        <v>502355.5934052682</v>
+        <v>4649306.403641994</v>
       </c>
       <c r="S9">
-        <v>0.2906088173018799</v>
+        <v>0.2866479453772885</v>
       </c>
       <c r="T9">
-        <v>0.2906088173018799</v>
+        <v>0.2866479453772886</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.495626361418856</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H10">
-        <v>0.495626361418856</v>
+        <v>2.747314</v>
       </c>
       <c r="I10">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J10">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>43.83545103285659</v>
+        <v>90.61257336644535</v>
       </c>
       <c r="R10">
-        <v>43.83545103285659</v>
+        <v>815.5131602980081</v>
       </c>
       <c r="S10">
-        <v>2.535846867793496E-05</v>
+        <v>5.027957969052017E-05</v>
       </c>
       <c r="T10">
-        <v>2.535846867793496E-05</v>
+        <v>5.027957969052018E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.495626361418856</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H11">
-        <v>0.495626361418856</v>
+        <v>2.747314</v>
       </c>
       <c r="I11">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J11">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>80.70653967114413</v>
+        <v>149.2764377781109</v>
       </c>
       <c r="R11">
-        <v>80.70653967114413</v>
+        <v>1343.487940002998</v>
       </c>
       <c r="S11">
-        <v>4.668810768757032E-05</v>
+        <v>8.283129228466298E-05</v>
       </c>
       <c r="T11">
-        <v>4.668810768757032E-05</v>
+        <v>8.283129228466301E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.495626361418856</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H12">
-        <v>0.495626361418856</v>
+        <v>2.747314</v>
       </c>
       <c r="I12">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J12">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>30.63988757903176</v>
+        <v>59.88787979694224</v>
       </c>
       <c r="R12">
-        <v>30.63988757903176</v>
+        <v>538.9909181724802</v>
       </c>
       <c r="S12">
-        <v>1.772493749148251E-05</v>
+        <v>3.323090066727651E-05</v>
       </c>
       <c r="T12">
-        <v>1.772493749148251E-05</v>
+        <v>3.323090066727652E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.495626361418856</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H13">
-        <v>0.495626361418856</v>
+        <v>2.747314</v>
       </c>
       <c r="I13">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J13">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>69.54109243731898</v>
+        <v>132.1208913671622</v>
       </c>
       <c r="R13">
-        <v>69.54109243731898</v>
+        <v>1189.08802230446</v>
       </c>
       <c r="S13">
-        <v>4.022898300006874E-05</v>
+        <v>7.331193276470557E-05</v>
       </c>
       <c r="T13">
-        <v>4.022898300006874E-05</v>
+        <v>7.331193276470559E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>230.384395350604</v>
+        <v>233.243637</v>
       </c>
       <c r="H14">
-        <v>230.384395350604</v>
+        <v>699.7309110000001</v>
       </c>
       <c r="I14">
-        <v>0.06042875882943625</v>
+        <v>0.0610389295177331</v>
       </c>
       <c r="J14">
-        <v>0.06042875882943625</v>
+        <v>0.06103892951773311</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>20376.24441971714</v>
+        <v>23078.69377499519</v>
       </c>
       <c r="R14">
-        <v>20376.24441971714</v>
+        <v>207708.2439749567</v>
       </c>
       <c r="S14">
-        <v>0.0117874994716958</v>
+        <v>0.01280602657779372</v>
       </c>
       <c r="T14">
-        <v>0.0117874994716958</v>
+        <v>0.01280602657779372</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>230.384395350604</v>
+        <v>233.243637</v>
       </c>
       <c r="H15">
-        <v>230.384395350604</v>
+        <v>699.7309110000001</v>
       </c>
       <c r="I15">
-        <v>0.06042875882943625</v>
+        <v>0.0610389295177331</v>
       </c>
       <c r="J15">
-        <v>0.06042875882943625</v>
+        <v>0.06103892951773311</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>37515.21063114438</v>
+        <v>38020.16726057246</v>
       </c>
       <c r="R15">
-        <v>37515.21063114438</v>
+        <v>342181.5053451521</v>
       </c>
       <c r="S15">
-        <v>0.02170225859026625</v>
+        <v>0.02109682970699909</v>
       </c>
       <c r="T15">
-        <v>0.02170225859026625</v>
+        <v>0.0210968297069991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>230.384395350604</v>
+        <v>233.243637</v>
       </c>
       <c r="H16">
-        <v>230.384395350604</v>
+        <v>699.7309110000001</v>
       </c>
       <c r="I16">
-        <v>0.06042875882943625</v>
+        <v>0.0610389295177331</v>
       </c>
       <c r="J16">
-        <v>0.06042875882943625</v>
+        <v>0.06103892951773311</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>14242.48692764783</v>
+        <v>15253.22576457329</v>
       </c>
       <c r="R16">
-        <v>14242.48692764783</v>
+        <v>137279.0318811595</v>
       </c>
       <c r="S16">
-        <v>0.008239168301928605</v>
+        <v>0.008463789867945165</v>
       </c>
       <c r="T16">
-        <v>0.008239168301928605</v>
+        <v>0.008463789867945166</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>230.384395350604</v>
+        <v>233.243637</v>
       </c>
       <c r="H17">
-        <v>230.384395350604</v>
+        <v>699.7309110000001</v>
       </c>
       <c r="I17">
-        <v>0.06042875882943625</v>
+        <v>0.0610389295177331</v>
       </c>
       <c r="J17">
-        <v>0.06042875882943625</v>
+        <v>0.06103892951773311</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>32325.12186665677</v>
+        <v>33650.71181469481</v>
       </c>
       <c r="R17">
-        <v>32325.12186665677</v>
+        <v>302856.4063322534</v>
       </c>
       <c r="S17">
-        <v>0.0186998324655456</v>
+        <v>0.01867228336499511</v>
       </c>
       <c r="T17">
-        <v>0.0186998324655456</v>
+        <v>0.01867228336499512</v>
       </c>
     </row>
   </sheetData>
